--- a/planilhas/PU.DME.xlsx
+++ b/planilhas/PU.DME.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\analisadorPlanilhas\planilhas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2979E237-ED70-4606-BCB3-7E7B1E456BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidade XXX" sheetId="1" r:id="rId1"/>
@@ -14,28 +20,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>UFSC</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
   <si>
     <t>Tipo Aparelho</t>
   </si>
@@ -121,9 +116,6 @@
   </si>
   <si>
     <t>Código Ambiente</t>
-  </si>
-  <si>
-    <t>DME  - Departamento de Manutenção Externa</t>
   </si>
   <si>
     <t>springer</t>
@@ -135,8 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,14 +150,6 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -181,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -204,20 +188,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -233,12 +208,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -549,18 +518,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J10" sqref="J9:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,386 +546,369 @@
     <col min="10" max="10" width="29" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>171353</v>
+      </c>
+      <c r="B2" s="6">
+        <v>306</v>
+      </c>
+      <c r="C2" s="6">
+        <v>16377</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6">
+        <v>12000</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>325885</v>
+      </c>
+      <c r="B3" s="6">
+        <v>306</v>
+      </c>
+      <c r="C3" s="6">
+        <v>16377</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="6">
+        <v>18000</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>121619</v>
+      </c>
+      <c r="B4" s="6">
+        <v>306</v>
+      </c>
+      <c r="C4" s="6">
+        <v>16375</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6">
+        <v>18000</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>122079</v>
+      </c>
+      <c r="B5" s="6">
+        <v>306</v>
+      </c>
+      <c r="C5" s="6">
+        <v>16374</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="6">
+        <v>18000</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>171354</v>
+      </c>
+      <c r="B6" s="6">
+        <v>306</v>
+      </c>
+      <c r="C6" s="6">
+        <v>16381</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="6">
+        <v>18000</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>171358</v>
+      </c>
+      <c r="B7" s="6">
+        <v>306</v>
+      </c>
+      <c r="C7" s="6">
+        <v>16379</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6">
+        <v>18000</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>171359</v>
+      </c>
+      <c r="B8" s="6">
+        <v>306</v>
+      </c>
+      <c r="C8" s="6">
+        <v>16382</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6">
+        <v>18000</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>171352</v>
+      </c>
+      <c r="B9" s="6">
+        <v>306</v>
+      </c>
+      <c r="C9" s="6">
+        <v>16380</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6">
+        <v>18000</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>10641</v>
+      </c>
+      <c r="B10" s="6">
+        <v>306</v>
+      </c>
+      <c r="C10" s="6">
+        <v>16382</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:10" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>171353</v>
-      </c>
-      <c r="B3" s="8">
-        <v>306</v>
-      </c>
-      <c r="C3" s="8">
-        <v>16377</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="F10" s="6">
+        <v>18000</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>24020</v>
+      </c>
+      <c r="B11" s="6">
+        <v>316</v>
+      </c>
+      <c r="C11" s="6">
+        <v>9985</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>176930</v>
+      </c>
+      <c r="B12" s="6">
+        <v>311</v>
+      </c>
+      <c r="C12" s="6">
+        <v>8421</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F12" s="6">
         <v>12000</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>325885</v>
-      </c>
-      <c r="B4" s="8">
-        <v>306</v>
-      </c>
-      <c r="C4" s="8">
-        <v>16377</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="8">
-        <v>18000</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>121619</v>
-      </c>
-      <c r="B5" s="8">
-        <v>306</v>
-      </c>
-      <c r="C5" s="8">
-        <v>16375</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="8">
-        <v>18000</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>122079</v>
-      </c>
-      <c r="B6" s="8">
-        <v>306</v>
-      </c>
-      <c r="C6" s="8">
-        <v>16374</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="8">
-        <v>18000</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>171354</v>
-      </c>
-      <c r="B7" s="8">
-        <v>306</v>
-      </c>
-      <c r="C7" s="8">
-        <v>16381</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="8">
-        <v>18000</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
-        <v>171358</v>
-      </c>
-      <c r="B8" s="8">
-        <v>306</v>
-      </c>
-      <c r="C8" s="8">
-        <v>16379</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="8">
-        <v>18000</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
-        <v>171359</v>
-      </c>
-      <c r="B9" s="8">
-        <v>306</v>
-      </c>
-      <c r="C9" s="8">
-        <v>16382</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="8">
-        <v>18000</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>171352</v>
-      </c>
-      <c r="B10" s="8">
-        <v>306</v>
-      </c>
-      <c r="C10" s="8">
-        <v>16380</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="8">
-        <v>18000</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>10641</v>
-      </c>
-      <c r="B11" s="8">
-        <v>306</v>
-      </c>
-      <c r="C11" s="8">
-        <v>16382</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="8">
-        <v>18000</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>24020</v>
-      </c>
-      <c r="B12" s="8">
-        <v>316</v>
-      </c>
-      <c r="C12" s="8">
-        <v>9985</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="8">
-        <v>10000</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="G12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
-        <v>176930</v>
-      </c>
-      <c r="B13" s="8">
-        <v>311</v>
-      </c>
-      <c r="C13" s="8">
-        <v>8421</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="8">
-        <v>12000</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
   <pageMargins left="0.43307086614173229" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
